--- a/data/network_share/clients/acme_corporation/customers.xlsx
+++ b/data/network_share/clients/acme_corporation/customers.xlsx
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45926</v>
+        <v>45928</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45986</v>
+        <v>45988</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>46016</v>
+        <v>46018</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>46036</v>
+        <v>46038</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
